--- a/Mecanical_Lift/Libraries/Excel βιβλιοθήκες/Βάρος Σασί Θαλάμων Αναλυτικά.xlsx
+++ b/Mecanical_Lift/Libraries/Excel βιβλιοθήκες/Βάρος Σασί Θαλάμων Αναλυτικά.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Mechanical Lift\Mecanical_Lift\Libraries\Excel βιβλιοθήκες\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5556BF3-4C52-4C8B-AA53-7A7E892BB9C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Ωφέλιμο Φορτίο                Μάζα [ kg ]</t>
+  </si>
+  <si>
+    <t>Άνοιγμα Οδηγών [ mm ]  Από</t>
+  </si>
+  <si>
+    <t>Άνοιγμα Οδηγών [ mm ]    Έως</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Βάρος [ kg ]    Έως </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Βάρος [ kg ]   Από   </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,17 +71,237 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF002060"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF002060"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +312,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B221973A-ED08-49FE-8E76-39D5A4617644}" name="Πίνακας1" displayName="Πίνακας1" ref="B1:F24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="B1:F24" xr:uid="{77058C48-867E-4A3A-BF8F-B896593745B6}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FED31B75-9D7F-45FA-979A-F834C23F7770}" name="Ωφέλιμο Φορτίο                Μάζα [ kg ]" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{01D6F19F-B8FA-461E-ACA9-C40E3186D625}" name="Άνοιγμα Οδηγών [ mm ]  Από" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A444FBD9-57C5-4CDE-93F0-118FC38F5AB4}" name="Άνοιγμα Οδηγών [ mm ]    Έως" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{18D5F9BA-6790-4E85-84BD-92F8E597D32B}" name="Βάρος [ kg ]   Από   " dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3E62E447-5336-4B03-8B51-3FBB53517CC8}" name="Βάρος [ kg ]    Έως " dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +596,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="10">
+        <v>450</v>
+      </c>
+      <c r="C2" s="7">
+        <v>900</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="4">
+        <v>180</v>
+      </c>
+      <c r="F2" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>525</v>
+      </c>
+      <c r="C3" s="7">
+        <v>900</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1300</v>
+      </c>
+      <c r="E3" s="4">
+        <v>180</v>
+      </c>
+      <c r="F3" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>600</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="4">
+        <v>190</v>
+      </c>
+      <c r="F4" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>675</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="4">
+        <v>190</v>
+      </c>
+      <c r="F5" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>750</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="4">
+        <v>220</v>
+      </c>
+      <c r="F6" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>830</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1400</v>
+      </c>
+      <c r="E7" s="4">
+        <v>220</v>
+      </c>
+      <c r="F7" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>900</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="4">
+        <v>230</v>
+      </c>
+      <c r="F8" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="4">
+        <v>230</v>
+      </c>
+      <c r="F9" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>1050</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="4">
+        <v>250</v>
+      </c>
+      <c r="F10" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>1100</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1300</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1700</v>
+      </c>
+      <c r="E11" s="4">
+        <v>250</v>
+      </c>
+      <c r="F11" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>1200</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1300</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="4">
+        <v>260</v>
+      </c>
+      <c r="F12" s="4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>1300</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>280</v>
+      </c>
+      <c r="F13" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>1400</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="4">
+        <v>300</v>
+      </c>
+      <c r="F14" s="4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>1500</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1600</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="4">
+        <v>320</v>
+      </c>
+      <c r="F15" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>1600</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1700</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2300</v>
+      </c>
+      <c r="E16" s="4">
+        <v>330</v>
+      </c>
+      <c r="F16" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>1800</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1800</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="4">
+        <v>340</v>
+      </c>
+      <c r="F17" s="4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="4">
+        <v>350</v>
+      </c>
+      <c r="F18" s="4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>2300</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2600</v>
+      </c>
+      <c r="E19" s="4">
+        <v>360</v>
+      </c>
+      <c r="F19" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2800</v>
+      </c>
+      <c r="E20" s="4">
+        <v>360</v>
+      </c>
+      <c r="F20" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>2800</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2200</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="4">
+        <v>370</v>
+      </c>
+      <c r="F21" s="4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>3000</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2400</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3200</v>
+      </c>
+      <c r="E22" s="4">
+        <v>380</v>
+      </c>
+      <c r="F22" s="4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>3500</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2400</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3400</v>
+      </c>
+      <c r="E23" s="4">
+        <v>420</v>
+      </c>
+      <c r="F23" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>4000</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2400</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="5">
+        <v>450</v>
+      </c>
+      <c r="F24" s="5">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Mecanical_Lift/Libraries/Excel βιβλιοθήκες/Βάρος Σασί Θαλάμων Αναλυτικά.xlsx
+++ b/Mecanical_Lift/Libraries/Excel βιβλιοθήκες/Βάρος Σασί Θαλάμων Αναλυτικά.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Mechanical Lift\Mecanical_Lift\Libraries\Excel βιβλιοθήκες\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5556BF3-4C52-4C8B-AA53-7A7E892BB9C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ABB9F3-F22A-4082-BFD2-43582C0CDB66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -224,21 +224,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF002060"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -296,10 +281,25 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF002060"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF002060"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B221973A-ED08-49FE-8E76-39D5A4617644}" name="Πίνακας1" displayName="Πίνακας1" ref="B1:F24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B221973A-ED08-49FE-8E76-39D5A4617644}" name="Πίνακας1" displayName="Πίνακας1" ref="B1:F24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B1:F24" xr:uid="{77058C48-867E-4A3A-BF8F-B896593745B6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -324,11 +324,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FED31B75-9D7F-45FA-979A-F834C23F7770}" name="Ωφέλιμο Φορτίο                Μάζα [ kg ]" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{01D6F19F-B8FA-461E-ACA9-C40E3186D625}" name="Άνοιγμα Οδηγών [ mm ]  Από" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A444FBD9-57C5-4CDE-93F0-118FC38F5AB4}" name="Άνοιγμα Οδηγών [ mm ]    Έως" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{18D5F9BA-6790-4E85-84BD-92F8E597D32B}" name="Βάρος [ kg ]   Από   " dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3E62E447-5336-4B03-8B51-3FBB53517CC8}" name="Βάρος [ kg ]    Έως " dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{FED31B75-9D7F-45FA-979A-F834C23F7770}" name="Ωφέλιμο Φορτίο                Μάζα [ kg ]" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{01D6F19F-B8FA-461E-ACA9-C40E3186D625}" name="Άνοιγμα Οδηγών [ mm ]  Από" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A444FBD9-57C5-4CDE-93F0-118FC38F5AB4}" name="Άνοιγμα Οδηγών [ mm ]    Έως" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{18D5F9BA-6790-4E85-84BD-92F8E597D32B}" name="Βάρος [ kg ]   Από   " dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3E62E447-5336-4B03-8B51-3FBB53517CC8}" name="Βάρος [ kg ]    Έως " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -600,12 +600,12 @@
   <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E28"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1022,9 +1022,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>